--- a/data/MasterDataSheetFuelInventory.xlsx
+++ b/data/MasterDataSheetFuelInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbevins\dev\github\mdo-fuel-inventory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4134ED93-6A44-4138-BF94-2FD2C331642A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28961067-D695-43AB-A662-58FEFB3388DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="30" windowWidth="17340" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="30" windowWidth="17340" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_0" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,17 @@
     <sheet name="Shrub_plot_1_stem_count_6" sheetId="8" r:id="rId7"/>
     <sheet name="Shrub_plot_2_stem_count_7" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2150,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2173,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="40.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
@@ -2177,16 +2187,16 @@
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="4.5703125" customWidth="1"/>
     <col min="25" max="25" width="23.42578125" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" customWidth="1"/>
-    <col min="27" max="27" width="18" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" customWidth="1"/>
+    <col min="26" max="26" width="36" customWidth="1"/>
+    <col min="27" max="27" width="36.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
     <col min="31" max="31" width="26.7109375" customWidth="1"/>
     <col min="32" max="32" width="35.7109375" customWidth="1"/>
     <col min="33" max="33" width="36" customWidth="1"/>
     <col min="34" max="34" width="34.28515625" customWidth="1"/>
-    <col min="35" max="35" width="28.140625" customWidth="1"/>
+    <col min="35" max="35" width="24.85546875" customWidth="1"/>
     <col min="36" max="36" width="26.28515625" customWidth="1"/>
     <col min="37" max="37" width="22.5703125" customWidth="1"/>
     <col min="38" max="38" width="24.28515625" customWidth="1"/>
@@ -12086,7 +12096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -13632,7 +13642,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14279,7 +14289,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14353,8 +14363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14363,7 +14373,7 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
@@ -20221,14 +20231,14 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
